--- a/biology/Médecine/PTPN22/PTPN22.xlsx
+++ b/biology/Médecine/PTPN22/PTPN22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PTPN22 pour « Protein tyrosine phosphatase, non receptor type 22 », est une protéine tyrosine phosphatase (LYP) exprimée dans les tissus lymphoïdes et codée par le gène PTPN22[5] situé sur le chromosome 1 humain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PTPN22 pour « Protein tyrosine phosphatase, non receptor type 22 », est une protéine tyrosine phosphatase (LYP) exprimée dans les tissus lymphoïdes et codée par le gène PTPN22 situé sur le chromosome 1 humain.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Le gène PTPN22</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PTPN22 est un gène de 57 949 paires de bases situé sur le chromosome 1 en position 1p13.2 et composé de 21 exons[6]. Il est exprimé dans les tissus lymphoïdes et code quatre isoformes traduites de manière indépendante à la suite d'un épissage alternatif[6],[7]. LYP1, l'isoforme la plus documentée, est une protéine de 807 acides aminés ayant un poids moléculaire de 105 kD. Elle est composée de 3 domaines majeurs. Un domaine catalytique tyrosine phosphatase (PTP)en N-terminal, un domaine intermédiaire  et un domaine C-terminal composé de 4 motifs riches en prolines, appelés P1 à P4[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PTPN22 est un gène de 57 949 paires de bases situé sur le chromosome 1 en position 1p13.2 et composé de 21 exons. Il est exprimé dans les tissus lymphoïdes et code quatre isoformes traduites de manière indépendante à la suite d'un épissage alternatif,. LYP1, l'isoforme la plus documentée, est une protéine de 807 acides aminés ayant un poids moléculaire de 105 kD. Elle est composée de 3 domaines majeurs. Un domaine catalytique tyrosine phosphatase (PTP)en N-terminal, un domaine intermédiaire  et un domaine C-terminal composé de 4 motifs riches en prolines, appelés P1 à P4.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Rôles et fonctions de la protéine PTPN22</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine PTPN22 ou LYP est localisée principalement dans le cytosol des cellules immunitaires, où elle est impliquée dans de nombreuses voies de signalisation associées à la réponse immunitaire. Son action se situe principalement au niveau des voies de signalisation des récepteurs des lymphocytes T (TCR) et lymphocytes B (BCR) où elle joue un rôle important d’inhibiteur de l'activation et de la prolifération lymphocytaire. Le role de LYP est principalement décrit dans la signalisation du TCR[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine PTPN22 ou LYP est localisée principalement dans le cytosol des cellules immunitaires, où elle est impliquée dans de nombreuses voies de signalisation associées à la réponse immunitaire. Son action se situe principalement au niveau des voies de signalisation des récepteurs des lymphocytes T (TCR) et lymphocytes B (BCR) où elle joue un rôle important d’inhibiteur de l'activation et de la prolifération lymphocytaire. Le role de LYP est principalement décrit dans la signalisation du TCR.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette phosphatase joue un rôle de régulateur négatif de l'activation des lymphocytes T à travers une inhibition de la voie de signalisation de leur récepteur, le TCR. Une mutation au sein du gène PTPN22 a été associée à diverses maladies auto-immunes dont le diabète de type 1[10] et la polyarthrite rhumatoïde[11].
-La protéine est surexprimée dans le syndrome coronarien aigu entraînant une baisse des lymphocytes T régulateurs[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette phosphatase joue un rôle de régulateur négatif de l'activation des lymphocytes T à travers une inhibition de la voie de signalisation de leur récepteur, le TCR. Une mutation au sein du gène PTPN22 a été associée à diverses maladies auto-immunes dont le diabète de type 1 et la polyarthrite rhumatoïde.
+La protéine est surexprimée dans le syndrome coronarien aigu entraînant une baisse des lymphocytes T régulateurs.
 </t>
         </is>
       </c>
